--- a/data/xwcb.xlsx
+++ b/data/xwcb.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1616,23 +1616,28 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>所在单位</t>
-  </si>
-  <si>
-    <t>专业领域</t>
-  </si>
-  <si>
-    <t>职务</t>
+    <t>number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>speciality</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1753,7 +1758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,11 +1807,276 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="122">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2815,12 +3085,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2862,7 +3135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2897,7 +3170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3109,15 +3382,15 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>470</v>
       </c>
@@ -3127,17 +3400,17 @@
       <c r="C1" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="16" t="s">
         <v>474</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3157,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3177,7 +3450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3197,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3217,7 +3490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3237,7 +3510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3257,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3277,7 +3550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3297,7 +3570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3317,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3337,7 +3610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3357,7 +3630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3377,7 +3650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3397,7 +3670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3417,7 +3690,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3437,7 +3710,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3457,7 +3730,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3477,7 +3750,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3497,7 +3770,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3517,7 +3790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3537,7 +3810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3557,7 +3830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3577,7 +3850,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3597,7 +3870,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3617,7 +3890,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3637,7 +3910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3657,7 +3930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3677,7 +3950,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3697,7 +3970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3717,7 +3990,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3737,7 +4010,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3757,7 +4030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3777,7 +4050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3797,7 +4070,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3817,7 +4090,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3837,7 +4110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3857,7 +4130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3877,7 +4150,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3897,7 +4170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3917,7 +4190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3937,7 +4210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="81" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3957,7 +4230,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3977,7 +4250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3997,7 +4270,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4017,7 +4290,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4037,7 +4310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4057,7 +4330,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4075,7 +4348,7 @@
       </c>
       <c r="F48" s="12"/>
     </row>
-    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4095,7 +4368,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4115,7 +4388,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4135,7 +4408,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="72" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4155,7 +4428,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4175,7 +4448,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4195,7 +4468,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4215,7 +4488,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4235,7 +4508,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4255,7 +4528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4275,7 +4548,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="24" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4295,7 +4568,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4315,7 +4588,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4335,7 +4608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4355,7 +4628,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4375,7 +4648,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4395,7 +4668,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4415,7 +4688,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4435,7 +4708,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4455,7 +4728,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4475,7 +4748,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4495,7 +4768,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4515,7 +4788,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4535,7 +4808,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4555,7 +4828,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4575,7 +4848,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4595,7 +4868,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4615,7 +4888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4635,7 +4908,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4655,7 +4928,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4675,7 +4948,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4695,7 +4968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4715,7 +4988,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4735,7 +5008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4755,7 +5028,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4775,7 +5048,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4795,7 +5068,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4815,7 +5088,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4835,7 +5108,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4855,7 +5128,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4875,7 +5148,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4895,7 +5168,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4915,7 +5188,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4935,7 +5208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4955,7 +5228,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4975,7 +5248,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4995,7 +5268,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5015,7 +5288,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="36" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5035,7 +5308,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5055,7 +5328,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5075,7 +5348,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5095,7 +5368,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5115,7 +5388,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5135,7 +5408,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5155,7 +5428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5173,7 +5446,7 @@
       </c>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5193,7 +5466,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5211,7 +5484,7 @@
       </c>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5231,7 +5504,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5251,7 +5524,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="108" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5271,7 +5544,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5291,7 +5564,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5311,7 +5584,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5331,7 +5604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5351,7 +5624,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5371,7 +5644,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5391,7 +5664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5411,7 +5684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5431,7 +5704,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5451,7 +5724,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5471,7 +5744,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5491,7 +5764,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5511,7 +5784,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5529,7 +5802,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5547,7 +5820,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5565,7 +5838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5583,7 +5856,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5603,7 +5876,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5623,7 +5896,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5643,7 +5916,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5663,7 +5936,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5683,7 +5956,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5701,7 +5974,7 @@
       </c>
       <c r="F130" s="12"/>
     </row>
-    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5721,7 +5994,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5741,7 +6014,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5761,7 +6034,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5781,7 +6054,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5801,7 +6074,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5821,7 +6094,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -5841,7 +6114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -5861,7 +6134,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -5881,7 +6154,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="72" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -5901,7 +6174,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -5921,7 +6194,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -5941,7 +6214,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -5961,7 +6234,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -5981,7 +6254,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -5997,7 +6270,7 @@
       <c r="E145" s="11"/>
       <c r="F145" s="12"/>
     </row>
-    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6020,268 +6293,268 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B25:B54 B2:B23">
-    <cfRule type="duplicateValues" dxfId="95" priority="98" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="111" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:B97">
-    <cfRule type="duplicateValues" dxfId="94" priority="97" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="110" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107:B115">
-    <cfRule type="duplicateValues" dxfId="93" priority="96" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="109" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B116:B124">
-    <cfRule type="duplicateValues" dxfId="92" priority="95" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="108" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C115">
-    <cfRule type="duplicateValues" dxfId="91" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69">
-    <cfRule type="duplicateValues" dxfId="90" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98:C106">
-    <cfRule type="duplicateValues" dxfId="88" priority="90"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="104"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55:C68">
-    <cfRule type="duplicateValues" dxfId="86" priority="88"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B124">
-    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="100"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116:C124">
-    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C124">
-    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="81" priority="84" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="97" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="duplicateValues" dxfId="80" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="duplicateValues" dxfId="79" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="78" priority="81" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="94" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="duplicateValues" dxfId="77" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="duplicateValues" dxfId="76" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="75" priority="78" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="91" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="duplicateValues" dxfId="74" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="duplicateValues" dxfId="73" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="72" priority="75" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="88" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="duplicateValues" dxfId="71" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C128">
-    <cfRule type="duplicateValues" dxfId="70" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="69" priority="72" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="85" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="duplicateValues" dxfId="68" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="duplicateValues" dxfId="67" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="66" priority="69" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="82" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="duplicateValues" dxfId="65" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="duplicateValues" dxfId="64" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="duplicateValues" dxfId="63" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="duplicateValues" dxfId="61" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="duplicateValues" dxfId="60" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B133">
-    <cfRule type="duplicateValues" dxfId="59" priority="62" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="75" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132:B133">
-    <cfRule type="duplicateValues" dxfId="58" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C132:C133">
-    <cfRule type="duplicateValues" dxfId="57" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="56" priority="59" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="72" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="duplicateValues" dxfId="55" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="duplicateValues" dxfId="54" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="53" priority="56" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="69" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="duplicateValues" dxfId="52" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="duplicateValues" dxfId="51" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="duplicateValues" dxfId="50" priority="53" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="66" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136:B137">
-    <cfRule type="duplicateValues" dxfId="49" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136:C137">
-    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="47" priority="50" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="63" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138">
-    <cfRule type="duplicateValues" dxfId="45" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B140">
-    <cfRule type="duplicateValues" dxfId="44" priority="47" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="60" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139:B140">
-    <cfRule type="duplicateValues" dxfId="43" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C139:C140">
-    <cfRule type="duplicateValues" dxfId="42" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="41" priority="44" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="57" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="duplicateValues" dxfId="40" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="duplicateValues" dxfId="39" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="38" priority="41" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="54" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="duplicateValues" dxfId="37" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="duplicateValues" dxfId="36" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B144">
-    <cfRule type="duplicateValues" dxfId="35" priority="38" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="51" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143:B144">
-    <cfRule type="duplicateValues" dxfId="34" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143:C144">
-    <cfRule type="duplicateValues" dxfId="33" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="32" priority="35" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="48" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="31" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="duplicateValues" dxfId="30" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="duplicateValues" dxfId="29" priority="32" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="45" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146">
-    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B103">
-    <cfRule type="duplicateValues" dxfId="26" priority="29" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="42" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119:B146">
-    <cfRule type="duplicateValues" dxfId="25" priority="28" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="41" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96:C103">
-    <cfRule type="duplicateValues" dxfId="24" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118:B146">
-    <cfRule type="duplicateValues" dxfId="20" priority="23" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="duplicateValues" dxfId="19" priority="22" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="35" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B146">
-    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C146">
-    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C117">
-    <cfRule type="duplicateValues" dxfId="15" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C146">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="12" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="15" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="13" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -6294,7 +6567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6308,7 +6581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
